--- a/Staffing_Ratio_Calculated6100314079842180.xlsx
+++ b/Staffing_Ratio_Calculated6100314079842180.xlsx
@@ -532,52 +532,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.45666666666667</v>
+        <v>23.07083333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>2.293333333333333</v>
+        <v>2.866666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>1.533333333333333</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>1.066666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.016666666666667</v>
+        <v>1.270833333333333</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="R2" t="n">
         <v>38</v>
